--- a/Assignment28_Pradnya_Nandrekar.xlsx
+++ b/Assignment28_Pradnya_Nandrekar.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GrowtechMind\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nandr\eclipse-workspace\FirstJavaProject\src\assignments_PradnyaNandrekar\PradnyaNandrekarJavaRepository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57837EB-EE37-4E0E-98A0-BE4AAC22E7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E77E34-49D7-49F8-AA8C-73550CFCC65E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,9 +61,6 @@
     <t>ListIteartor</t>
   </si>
   <si>
-    <t>NavigationSet</t>
-  </si>
-  <si>
     <t>Vector
 Vector vec = new Vector();</t>
   </si>
@@ -143,6 +140,10 @@
   </si>
   <si>
     <t>TRUE - Single null Key</t>
+  </si>
+  <si>
+    <t>NavigableSet
+NavigableSet s1 = new TreeSet();</t>
   </si>
 </sst>
 </file>
@@ -321,7 +322,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -625,10 +626,10 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -643,64 +644,64 @@
     <row r="1" spans="1:21" s="7" customFormat="1" ht="52.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="P1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -761,7 +762,9 @@
       <c r="S2" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="T2" s="3"/>
+      <c r="T2" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="U2" s="3" t="b">
         <v>0</v>
       </c>
@@ -824,7 +827,9 @@
       <c r="S3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T3" s="3"/>
+      <c r="T3" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="U3" s="3" t="b">
         <v>0</v>
       </c>
@@ -887,7 +892,9 @@
       <c r="S4" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="T4" s="3"/>
+      <c r="T4" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="U4" s="3" t="b">
         <v>1</v>
       </c>
@@ -950,7 +957,9 @@
       <c r="S5" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="T5" s="3"/>
+      <c r="T5" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="U5" s="3" t="b">
         <v>0</v>
       </c>
@@ -1013,7 +1022,9 @@
       <c r="S6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T6" s="3"/>
+      <c r="T6" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="U6" s="3" t="b">
         <v>0</v>
       </c>
@@ -1062,21 +1073,23 @@
         <v>0</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S7" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="T7" s="3"/>
+      <c r="T7" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="U7" s="3" t="b">
         <v>0</v>
       </c>
@@ -1139,7 +1152,9 @@
       <c r="S8" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T8" s="3"/>
+      <c r="T8" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="U8" s="3" t="b">
         <v>1</v>
       </c>
@@ -1202,14 +1217,16 @@
       <c r="S9" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T9" s="3"/>
+      <c r="T9" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="U9" s="3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="73" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1225,7 +1242,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1255,7 +1272,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1271,11 +1288,11 @@
         <v>9</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:U9 B12">
+  <conditionalFormatting sqref="B12 B2:U9">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
